--- a/Code/Results/Cases/Case_5_232/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_232/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.014460439807908</v>
+        <v>1.039913953218831</v>
       </c>
       <c r="D2">
-        <v>1.029493919473617</v>
+        <v>1.043047995616468</v>
       </c>
       <c r="E2">
-        <v>1.027142888962079</v>
+        <v>1.047803087651592</v>
       </c>
       <c r="F2">
-        <v>1.033916591967882</v>
+        <v>1.057294117141863</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048454225685718</v>
+        <v>1.040920471246013</v>
       </c>
       <c r="J2">
-        <v>1.036217079318897</v>
+        <v>1.045003393771235</v>
       </c>
       <c r="K2">
-        <v>1.040557097932363</v>
+        <v>1.045822961556264</v>
       </c>
       <c r="L2">
-        <v>1.038236600709294</v>
+        <v>1.050564705429315</v>
       </c>
       <c r="M2">
-        <v>1.044922802739786</v>
+        <v>1.060029481313317</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.018514661872335</v>
+        <v>1.04077876476748</v>
       </c>
       <c r="D3">
-        <v>1.032465588500169</v>
+        <v>1.043702153493407</v>
       </c>
       <c r="E3">
-        <v>1.030556365283008</v>
+        <v>1.048583400728539</v>
       </c>
       <c r="F3">
-        <v>1.037764492328573</v>
+        <v>1.058181755642709</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049633312485359</v>
+        <v>1.041126990835344</v>
       </c>
       <c r="J3">
-        <v>1.038513015435651</v>
+        <v>1.045514030462325</v>
       </c>
       <c r="K3">
-        <v>1.042699257462782</v>
+        <v>1.046288485527669</v>
       </c>
       <c r="L3">
-        <v>1.040812648026231</v>
+        <v>1.051157018058541</v>
       </c>
       <c r="M3">
-        <v>1.0479359377151</v>
+        <v>1.060730740038175</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.02108958219682</v>
+        <v>1.041338989996178</v>
       </c>
       <c r="D4">
-        <v>1.034355633909827</v>
+        <v>1.044125928433514</v>
       </c>
       <c r="E4">
-        <v>1.032730007864154</v>
+        <v>1.049089277680736</v>
       </c>
       <c r="F4">
-        <v>1.040214773347257</v>
+        <v>1.058757269054845</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050374243972953</v>
+        <v>1.041259771337901</v>
       </c>
       <c r="J4">
-        <v>1.039968777901924</v>
+        <v>1.045844419810791</v>
       </c>
       <c r="K4">
-        <v>1.044056371338354</v>
+        <v>1.046589515701228</v>
       </c>
       <c r="L4">
-        <v>1.042448828779622</v>
+        <v>1.051540585455487</v>
       </c>
       <c r="M4">
-        <v>1.049850909638432</v>
+        <v>1.061185013231135</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.022160849976404</v>
+        <v>1.041574659011278</v>
       </c>
       <c r="D5">
-        <v>1.035142566584099</v>
+        <v>1.044304199282138</v>
       </c>
       <c r="E5">
-        <v>1.033635656821451</v>
+        <v>1.049302176952785</v>
       </c>
       <c r="F5">
-        <v>1.041235694146022</v>
+        <v>1.058999488836887</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050680566606895</v>
+        <v>1.04131538772072</v>
       </c>
       <c r="J5">
-        <v>1.040573819910309</v>
+        <v>1.045983307862026</v>
       </c>
       <c r="K5">
-        <v>1.044620130296673</v>
+        <v>1.04671602087977</v>
       </c>
       <c r="L5">
-        <v>1.043129533581361</v>
+        <v>1.05170190798808</v>
       </c>
       <c r="M5">
-        <v>1.050647886256961</v>
+        <v>1.061376110671841</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.022340072440959</v>
+        <v>1.041614237646861</v>
       </c>
       <c r="D6">
-        <v>1.035274253988164</v>
+        <v>1.044334138487063</v>
       </c>
       <c r="E6">
-        <v>1.033787248509082</v>
+        <v>1.049337937031653</v>
       </c>
       <c r="F6">
-        <v>1.041406581435867</v>
+        <v>1.059040174614979</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050731699639191</v>
+        <v>1.041324713941632</v>
       </c>
       <c r="J6">
-        <v>1.040675006284899</v>
+        <v>1.046006627293747</v>
       </c>
       <c r="K6">
-        <v>1.044714395688283</v>
+        <v>1.046737258810854</v>
       </c>
       <c r="L6">
-        <v>1.043243413625236</v>
+        <v>1.05172899886258</v>
       </c>
       <c r="M6">
-        <v>1.050781235153153</v>
+        <v>1.061408203822587</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.021103940176602</v>
+        <v>1.041342138428311</v>
       </c>
       <c r="D7">
-        <v>1.034366178692441</v>
+        <v>1.044128310044182</v>
       </c>
       <c r="E7">
-        <v>1.032742140885987</v>
+        <v>1.049092121555183</v>
       </c>
       <c r="F7">
-        <v>1.040228450618618</v>
+        <v>1.058760504533315</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050378357228418</v>
+        <v>1.041260515291297</v>
       </c>
       <c r="J7">
-        <v>1.039976889608667</v>
+        <v>1.045846275671253</v>
       </c>
       <c r="K7">
-        <v>1.044063930697558</v>
+        <v>1.046591206259398</v>
       </c>
       <c r="L7">
-        <v>1.042457952204924</v>
+        <v>1.051542740778608</v>
       </c>
       <c r="M7">
-        <v>1.049861590311801</v>
+        <v>1.061187566211036</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.015840836988672</v>
+        <v>1.040206088067412</v>
       </c>
       <c r="D8">
-        <v>1.030505137843911</v>
+        <v>1.043268968639539</v>
       </c>
       <c r="E8">
-        <v>1.028303914149922</v>
+        <v>1.048066597821806</v>
       </c>
       <c r="F8">
-        <v>1.035225382418572</v>
+        <v>1.057593859107094</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048857327496173</v>
+        <v>1.040990441395057</v>
       </c>
       <c r="J8">
-        <v>1.036999300822435</v>
+        <v>1.045175970627664</v>
       </c>
       <c r="K8">
-        <v>1.041287163054102</v>
+        <v>1.045980327190048</v>
       </c>
       <c r="L8">
-        <v>1.039113668167439</v>
+        <v>1.05076481699089</v>
       </c>
       <c r="M8">
-        <v>1.045948441963756</v>
+        <v>1.060266368050175</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.006178361732399</v>
+        <v>1.03820914816888</v>
       </c>
       <c r="D9">
-        <v>1.023439959610085</v>
+        <v>1.041758535082429</v>
       </c>
       <c r="E9">
-        <v>1.020202388094323</v>
+        <v>1.046266940983305</v>
       </c>
       <c r="F9">
-        <v>1.02609239903135</v>
+        <v>1.055546984556841</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046003459137644</v>
+        <v>1.04050804611637</v>
       </c>
       <c r="J9">
-        <v>1.031514816830934</v>
+        <v>1.043994657162587</v>
       </c>
       <c r="K9">
-        <v>1.036163851856016</v>
+        <v>1.044902441503179</v>
       </c>
       <c r="L9">
-        <v>1.032975983608939</v>
+        <v>1.049396386447454</v>
       </c>
       <c r="M9">
-        <v>1.038775868895221</v>
+        <v>1.058647088860734</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9994502062021545</v>
+        <v>1.036881257933301</v>
       </c>
       <c r="D10">
-        <v>1.01853908459774</v>
+        <v>1.04075425943529</v>
       </c>
       <c r="E10">
-        <v>1.014595018856927</v>
+        <v>1.045072281360775</v>
       </c>
       <c r="F10">
-        <v>1.019770222187048</v>
+        <v>1.054188497365829</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043976769661437</v>
+        <v>1.040182126833608</v>
       </c>
       <c r="J10">
-        <v>1.027685654481015</v>
+        <v>1.043207087088128</v>
       </c>
       <c r="K10">
-        <v>1.03258148799789</v>
+        <v>1.044182957158901</v>
       </c>
       <c r="L10">
-        <v>1.028705662785557</v>
+        <v>1.048485775847303</v>
       </c>
       <c r="M10">
-        <v>1.033791464074355</v>
+        <v>1.057570344927497</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9964627867653373</v>
+        <v>1.036307093053398</v>
       </c>
       <c r="D11">
-        <v>1.016368154138204</v>
+        <v>1.040320054014509</v>
       </c>
       <c r="E11">
-        <v>1.012113842291097</v>
+        <v>1.044556215049024</v>
       </c>
       <c r="F11">
-        <v>1.016972396198249</v>
+        <v>1.053601726352139</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04306798837511</v>
+        <v>1.04003998368607</v>
       </c>
       <c r="J11">
-        <v>1.02598346192476</v>
+        <v>1.042866069399387</v>
       </c>
       <c r="K11">
-        <v>1.030987854517774</v>
+        <v>1.043871215947937</v>
       </c>
       <c r="L11">
-        <v>1.026810868857662</v>
+        <v>1.048091886438726</v>
       </c>
       <c r="M11">
-        <v>1.031581182111644</v>
+        <v>1.057104780858035</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9953414402305663</v>
+        <v>1.036093947425671</v>
       </c>
       <c r="D12">
-        <v>1.015554116828778</v>
+        <v>1.040158870554561</v>
       </c>
       <c r="E12">
-        <v>1.011183858449984</v>
+        <v>1.044364711502949</v>
       </c>
       <c r="F12">
-        <v>1.015923660690195</v>
+        <v>1.053383995123005</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042725576558</v>
+        <v>1.039987033144472</v>
       </c>
       <c r="J12">
-        <v>1.025344275680211</v>
+        <v>1.042739402285815</v>
       </c>
       <c r="K12">
-        <v>1.030389270625889</v>
+        <v>1.043755392612211</v>
       </c>
       <c r="L12">
-        <v>1.02609988484121</v>
+        <v>1.047945641521638</v>
       </c>
       <c r="M12">
-        <v>1.030752017561256</v>
+        <v>1.056931952348123</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9955825109832016</v>
+        <v>1.036139662215581</v>
       </c>
       <c r="D13">
-        <v>1.015729082479829</v>
+        <v>1.040193440411531</v>
       </c>
       <c r="E13">
-        <v>1.011383727983244</v>
+        <v>1.044405781197239</v>
       </c>
       <c r="F13">
-        <v>1.016149055215796</v>
+        <v>1.053430689150589</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042799247216357</v>
+        <v>1.039998398093858</v>
       </c>
       <c r="J13">
-        <v>1.025481701027485</v>
+        <v>1.042766572699494</v>
       </c>
       <c r="K13">
-        <v>1.030517973613946</v>
+        <v>1.04378023839288</v>
       </c>
       <c r="L13">
-        <v>1.026252723020485</v>
+        <v>1.047977008672756</v>
       </c>
       <c r="M13">
-        <v>1.030930251691493</v>
+        <v>1.056969019976736</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9963703376345986</v>
+        <v>1.036289471815148</v>
       </c>
       <c r="D14">
-        <v>1.016301023693212</v>
+        <v>1.040306728494247</v>
       </c>
       <c r="E14">
-        <v>1.012037142439252</v>
+        <v>1.044540381492097</v>
       </c>
       <c r="F14">
-        <v>1.016885903802818</v>
+        <v>1.053583724088398</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043039784409688</v>
+        <v>1.040035609879606</v>
       </c>
       <c r="J14">
-        <v>1.025930769383222</v>
+        <v>1.0428555990075</v>
       </c>
       <c r="K14">
-        <v>1.030938512348909</v>
+        <v>1.043861642534598</v>
       </c>
       <c r="L14">
-        <v>1.026752246853482</v>
+        <v>1.048079796491972</v>
       </c>
       <c r="M14">
-        <v>1.031512811848762</v>
+        <v>1.057090492694999</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9968541779369617</v>
+        <v>1.036381791033139</v>
       </c>
       <c r="D15">
-        <v>1.0166523909518</v>
+        <v>1.040376542292607</v>
       </c>
       <c r="E15">
-        <v>1.012438612568234</v>
+        <v>1.044623337937372</v>
       </c>
       <c r="F15">
-        <v>1.017338628264121</v>
+        <v>1.053678043391178</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043187339670024</v>
+        <v>1.040058517135257</v>
       </c>
       <c r="J15">
-        <v>1.026206529963058</v>
+        <v>1.042910451361392</v>
       </c>
       <c r="K15">
-        <v>1.031196732565896</v>
+        <v>1.043911794537805</v>
       </c>
       <c r="L15">
-        <v>1.02705906003798</v>
+        <v>1.048143135869338</v>
       </c>
       <c r="M15">
-        <v>1.031870653164745</v>
+        <v>1.057165349703814</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9996468638710923</v>
+        <v>1.036919380779358</v>
       </c>
       <c r="D16">
-        <v>1.01868210642849</v>
+        <v>1.040783090115158</v>
       </c>
       <c r="E16">
-        <v>1.014758534705342</v>
+        <v>1.0451065570325</v>
       </c>
       <c r="F16">
-        <v>1.019954597495567</v>
+        <v>1.05422747040653</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044036411384816</v>
+        <v>1.040191539017816</v>
       </c>
       <c r="J16">
-        <v>1.027797669507089</v>
+        <v>1.043229719527221</v>
       </c>
       <c r="K16">
-        <v>1.032686336032308</v>
+        <v>1.044203642293809</v>
       </c>
       <c r="L16">
-        <v>1.028830425210648</v>
+        <v>1.048511925768732</v>
       </c>
       <c r="M16">
-        <v>1.033937027782094</v>
+        <v>1.057601257199028</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.001378425918323</v>
+        <v>1.037256817331171</v>
       </c>
       <c r="D17">
-        <v>1.019942001106047</v>
+        <v>1.041038282751759</v>
       </c>
       <c r="E17">
-        <v>1.01619927012837</v>
+        <v>1.045409997955483</v>
       </c>
       <c r="F17">
-        <v>1.021579082890802</v>
+        <v>1.054572504435851</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044560544915207</v>
+        <v>1.040274708081472</v>
       </c>
       <c r="J17">
-        <v>1.028783736114921</v>
+        <v>1.043429990317349</v>
       </c>
       <c r="K17">
-        <v>1.033609181813355</v>
+        <v>1.044386658078625</v>
       </c>
       <c r="L17">
-        <v>1.029929106508767</v>
+        <v>1.048743368951554</v>
       </c>
       <c r="M17">
-        <v>1.035219043642124</v>
+        <v>1.057874871793119</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.002381308046841</v>
+        <v>1.037453717412751</v>
       </c>
       <c r="D18">
-        <v>1.020672188749988</v>
+        <v>1.041187195146208</v>
       </c>
       <c r="E18">
-        <v>1.017034525401771</v>
+        <v>1.045587108390976</v>
       </c>
       <c r="F18">
-        <v>1.022520832582061</v>
+        <v>1.054773897971482</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044863263051076</v>
+        <v>1.040323120925809</v>
       </c>
       <c r="J18">
-        <v>1.029354653311068</v>
+        <v>1.043546805314227</v>
       </c>
       <c r="K18">
-        <v>1.034143385073741</v>
+        <v>1.044493388734164</v>
       </c>
       <c r="L18">
-        <v>1.03056555921585</v>
+        <v>1.048878405405032</v>
       </c>
       <c r="M18">
-        <v>1.035961829412426</v>
+        <v>1.058034531400699</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.002722075494957</v>
+        <v>1.037520868614138</v>
       </c>
       <c r="D19">
-        <v>1.020920378258147</v>
+        <v>1.041237981031883</v>
       </c>
       <c r="E19">
-        <v>1.017318471755285</v>
+        <v>1.045647518514209</v>
       </c>
       <c r="F19">
-        <v>1.022840976622013</v>
+        <v>1.054842591825985</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044965977972917</v>
+        <v>1.040339611766574</v>
       </c>
       <c r="J19">
-        <v>1.0295486107179</v>
+        <v>1.043586636245305</v>
       </c>
       <c r="K19">
-        <v>1.034324850694387</v>
+        <v>1.04452977780884</v>
       </c>
       <c r="L19">
-        <v>1.03078183756731</v>
+        <v>1.048924456013589</v>
       </c>
       <c r="M19">
-        <v>1.036214263802503</v>
+        <v>1.058088982151531</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.001193384894111</v>
+        <v>1.037220605395125</v>
       </c>
       <c r="D20">
-        <v>1.019807313463877</v>
+        <v>1.04101089648395</v>
       </c>
       <c r="E20">
-        <v>1.016045223178763</v>
+        <v>1.045377429348448</v>
       </c>
       <c r="F20">
-        <v>1.021405392478659</v>
+        <v>1.05453547094965</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044504621792577</v>
+        <v>1.040265794986932</v>
       </c>
       <c r="J20">
-        <v>1.02867838093939</v>
+        <v>1.043408503103173</v>
       </c>
       <c r="K20">
-        <v>1.033510592738424</v>
+        <v>1.044367024210032</v>
       </c>
       <c r="L20">
-        <v>1.029811684576239</v>
+        <v>1.048718533186343</v>
       </c>
       <c r="M20">
-        <v>1.035082014357648</v>
+        <v>1.05784550881811</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9961386695463356</v>
+        <v>1.036245353165363</v>
       </c>
       <c r="D21">
-        <v>1.016132815318581</v>
+        <v>1.040273365209623</v>
       </c>
       <c r="E21">
-        <v>1.011844962224242</v>
+        <v>1.044500739898518</v>
       </c>
       <c r="F21">
-        <v>1.016669186138311</v>
+        <v>1.053538652979852</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042969087425103</v>
+        <v>1.040024656133433</v>
       </c>
       <c r="J21">
-        <v>1.025798723236004</v>
+        <v>1.042829382912474</v>
       </c>
       <c r="K21">
-        <v>1.030814859568741</v>
+        <v>1.043837671828035</v>
       </c>
       <c r="L21">
-        <v>1.026605350088237</v>
+        <v>1.04804952628671</v>
       </c>
       <c r="M21">
-        <v>1.031341490817119</v>
+        <v>1.057054719158973</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9928926575346694</v>
+        <v>1.035632896038937</v>
       </c>
       <c r="D22">
-        <v>1.013778037423681</v>
+        <v>1.039810228095669</v>
       </c>
       <c r="E22">
-        <v>1.009155493431878</v>
+        <v>1.04395061013062</v>
       </c>
       <c r="F22">
-        <v>1.013636152754002</v>
+        <v>1.052913197289821</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041975488710945</v>
+        <v>1.039872162049297</v>
       </c>
       <c r="J22">
-        <v>1.023947999930368</v>
+        <v>1.04246527947795</v>
       </c>
       <c r="K22">
-        <v>1.029081402409574</v>
+        <v>1.04350468113699</v>
       </c>
       <c r="L22">
-        <v>1.024547734232115</v>
+        <v>1.047629261140087</v>
       </c>
       <c r="M22">
-        <v>1.028942229919998</v>
+        <v>1.05655811337287</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.994620061819517</v>
+        <v>1.035957502139895</v>
       </c>
       <c r="D23">
-        <v>1.015030678121679</v>
+        <v>1.040055690472105</v>
       </c>
       <c r="E23">
-        <v>1.010585970793531</v>
+        <v>1.044242141390608</v>
       </c>
       <c r="F23">
-        <v>1.015249407087728</v>
+        <v>1.053244640916547</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042504938491838</v>
+        <v>1.039953085281196</v>
       </c>
       <c r="J23">
-        <v>1.02493301040363</v>
+        <v>1.042658296007872</v>
       </c>
       <c r="K23">
-        <v>1.03000408530302</v>
+        <v>1.043681221108257</v>
       </c>
       <c r="L23">
-        <v>1.025642571327883</v>
+        <v>1.047852016481387</v>
       </c>
       <c r="M23">
-        <v>1.03021874476386</v>
+        <v>1.056821316563448</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.001277018895888</v>
+        <v>1.037236967766223</v>
       </c>
       <c r="D24">
-        <v>1.019868187474966</v>
+        <v>1.041023270965578</v>
       </c>
       <c r="E24">
-        <v>1.016114846101986</v>
+        <v>1.045392145334213</v>
       </c>
       <c r="F24">
-        <v>1.021483893545791</v>
+        <v>1.054552204352468</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044529900304065</v>
+        <v>1.040269822734394</v>
       </c>
       <c r="J24">
-        <v>1.028725999486901</v>
+        <v>1.043418212249163</v>
       </c>
       <c r="K24">
-        <v>1.033555153478369</v>
+        <v>1.044375895970075</v>
       </c>
       <c r="L24">
-        <v>1.029864756036254</v>
+        <v>1.048729755277534</v>
       </c>
       <c r="M24">
-        <v>1.035143947395543</v>
+        <v>1.057858776482439</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.008724883767793</v>
+        <v>1.03872481187598</v>
       </c>
       <c r="D25">
-        <v>1.025298956551831</v>
+        <v>1.042148553380382</v>
       </c>
       <c r="E25">
-        <v>1.022331852629434</v>
+        <v>1.046731302121333</v>
       </c>
       <c r="F25">
-        <v>1.028493088336454</v>
+        <v>1.05607508427776</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046762561224395</v>
+        <v>1.040633521760836</v>
       </c>
       <c r="J25">
-        <v>1.032962146616941</v>
+        <v>1.044300065275101</v>
       </c>
       <c r="K25">
-        <v>1.0375168345521</v>
+        <v>1.045181263722695</v>
       </c>
       <c r="L25">
-        <v>1.034593111573468</v>
+        <v>1.04974986911252</v>
       </c>
       <c r="M25">
-        <v>1.040664620656029</v>
+        <v>1.059065228961354</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_232/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_232/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.039913953218831</v>
+        <v>1.014460439807908</v>
       </c>
       <c r="D2">
-        <v>1.043047995616468</v>
+        <v>1.029493919473617</v>
       </c>
       <c r="E2">
-        <v>1.047803087651592</v>
+        <v>1.027142888962079</v>
       </c>
       <c r="F2">
-        <v>1.057294117141863</v>
+        <v>1.033916591967881</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040920471246013</v>
+        <v>1.048454225685718</v>
       </c>
       <c r="J2">
-        <v>1.045003393771235</v>
+        <v>1.036217079318897</v>
       </c>
       <c r="K2">
-        <v>1.045822961556264</v>
+        <v>1.040557097932363</v>
       </c>
       <c r="L2">
-        <v>1.050564705429315</v>
+        <v>1.038236600709293</v>
       </c>
       <c r="M2">
-        <v>1.060029481313317</v>
+        <v>1.044922802739785</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
+        <v>1.005712725503999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.04077876476748</v>
+        <v>1.018514661872336</v>
       </c>
       <c r="D3">
-        <v>1.043702153493407</v>
+        <v>1.032465588500169</v>
       </c>
       <c r="E3">
-        <v>1.048583400728539</v>
+        <v>1.030556365283009</v>
       </c>
       <c r="F3">
-        <v>1.058181755642709</v>
+        <v>1.037764492328574</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041126990835344</v>
+        <v>1.049633312485359</v>
       </c>
       <c r="J3">
-        <v>1.045514030462325</v>
+        <v>1.038513015435652</v>
       </c>
       <c r="K3">
-        <v>1.046288485527669</v>
+        <v>1.042699257462783</v>
       </c>
       <c r="L3">
-        <v>1.051157018058541</v>
+        <v>1.040812648026232</v>
       </c>
       <c r="M3">
-        <v>1.060730740038175</v>
+        <v>1.047935937715101</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.041338989996178</v>
+        <v>1.02108958219682</v>
       </c>
       <c r="D4">
-        <v>1.044125928433514</v>
+        <v>1.034355633909827</v>
       </c>
       <c r="E4">
-        <v>1.049089277680736</v>
+        <v>1.032730007864154</v>
       </c>
       <c r="F4">
-        <v>1.058757269054845</v>
+        <v>1.040214773347257</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041259771337901</v>
+        <v>1.050374243972953</v>
       </c>
       <c r="J4">
-        <v>1.045844419810791</v>
+        <v>1.039968777901924</v>
       </c>
       <c r="K4">
-        <v>1.046589515701228</v>
+        <v>1.044056371338354</v>
       </c>
       <c r="L4">
-        <v>1.051540585455487</v>
+        <v>1.042448828779622</v>
       </c>
       <c r="M4">
-        <v>1.061185013231135</v>
+        <v>1.049850909638432</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.041574659011278</v>
+        <v>1.022160849976404</v>
       </c>
       <c r="D5">
-        <v>1.044304199282138</v>
+        <v>1.035142566584099</v>
       </c>
       <c r="E5">
-        <v>1.049302176952785</v>
+        <v>1.03363565682145</v>
       </c>
       <c r="F5">
-        <v>1.058999488836887</v>
+        <v>1.041235694146022</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04131538772072</v>
+        <v>1.050680566606894</v>
       </c>
       <c r="J5">
-        <v>1.045983307862026</v>
+        <v>1.040573819910308</v>
       </c>
       <c r="K5">
-        <v>1.04671602087977</v>
+        <v>1.044620130296673</v>
       </c>
       <c r="L5">
-        <v>1.05170190798808</v>
+        <v>1.043129533581361</v>
       </c>
       <c r="M5">
-        <v>1.061376110671841</v>
+        <v>1.050647886256961</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.041614237646861</v>
+        <v>1.022340072440958</v>
       </c>
       <c r="D6">
-        <v>1.044334138487063</v>
+        <v>1.035274253988164</v>
       </c>
       <c r="E6">
-        <v>1.049337937031653</v>
+        <v>1.033787248509081</v>
       </c>
       <c r="F6">
-        <v>1.059040174614979</v>
+        <v>1.041406581435868</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041324713941632</v>
+        <v>1.050731699639191</v>
       </c>
       <c r="J6">
-        <v>1.046006627293747</v>
+        <v>1.040675006284899</v>
       </c>
       <c r="K6">
-        <v>1.046737258810854</v>
+        <v>1.044714395688283</v>
       </c>
       <c r="L6">
-        <v>1.05172899886258</v>
+        <v>1.043243413625236</v>
       </c>
       <c r="M6">
-        <v>1.061408203822587</v>
+        <v>1.050781235153153</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.041342138428311</v>
+        <v>1.021103940176602</v>
       </c>
       <c r="D7">
-        <v>1.044128310044182</v>
+        <v>1.034366178692441</v>
       </c>
       <c r="E7">
-        <v>1.049092121555183</v>
+        <v>1.032742140885987</v>
       </c>
       <c r="F7">
-        <v>1.058760504533315</v>
+        <v>1.040228450618618</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041260515291297</v>
+        <v>1.050378357228419</v>
       </c>
       <c r="J7">
-        <v>1.045846275671253</v>
+        <v>1.039976889608667</v>
       </c>
       <c r="K7">
-        <v>1.046591206259398</v>
+        <v>1.044063930697559</v>
       </c>
       <c r="L7">
-        <v>1.051542740778608</v>
+        <v>1.042457952204924</v>
       </c>
       <c r="M7">
-        <v>1.061187566211036</v>
+        <v>1.049861590311801</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.040206088067412</v>
+        <v>1.015840836988672</v>
       </c>
       <c r="D8">
-        <v>1.043268968639539</v>
+        <v>1.030505137843911</v>
       </c>
       <c r="E8">
-        <v>1.048066597821806</v>
+        <v>1.028303914149923</v>
       </c>
       <c r="F8">
-        <v>1.057593859107094</v>
+        <v>1.035225382418572</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040990441395057</v>
+        <v>1.048857327496173</v>
       </c>
       <c r="J8">
-        <v>1.045175970627664</v>
+        <v>1.036999300822435</v>
       </c>
       <c r="K8">
-        <v>1.045980327190048</v>
+        <v>1.041287163054103</v>
       </c>
       <c r="L8">
-        <v>1.05076481699089</v>
+        <v>1.039113668167439</v>
       </c>
       <c r="M8">
-        <v>1.060266368050175</v>
+        <v>1.045948441963756</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.03820914816888</v>
+        <v>1.006178361732398</v>
       </c>
       <c r="D9">
-        <v>1.041758535082429</v>
+        <v>1.023439959610084</v>
       </c>
       <c r="E9">
-        <v>1.046266940983305</v>
+        <v>1.020202388094323</v>
       </c>
       <c r="F9">
-        <v>1.055546984556841</v>
+        <v>1.02609239903135</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04050804611637</v>
+        <v>1.046003459137644</v>
       </c>
       <c r="J9">
-        <v>1.043994657162587</v>
+        <v>1.031514816830934</v>
       </c>
       <c r="K9">
-        <v>1.044902441503179</v>
+        <v>1.036163851856016</v>
       </c>
       <c r="L9">
-        <v>1.049396386447454</v>
+        <v>1.032975983608939</v>
       </c>
       <c r="M9">
-        <v>1.058647088860734</v>
+        <v>1.03877586889522</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.036881257933301</v>
+        <v>0.9994502062021544</v>
       </c>
       <c r="D10">
-        <v>1.04075425943529</v>
+        <v>1.01853908459774</v>
       </c>
       <c r="E10">
-        <v>1.045072281360775</v>
+        <v>1.014595018856927</v>
       </c>
       <c r="F10">
-        <v>1.054188497365829</v>
+        <v>1.019770222187047</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040182126833608</v>
+        <v>1.043976769661437</v>
       </c>
       <c r="J10">
-        <v>1.043207087088128</v>
+        <v>1.027685654481015</v>
       </c>
       <c r="K10">
-        <v>1.044182957158901</v>
+        <v>1.03258148799789</v>
       </c>
       <c r="L10">
-        <v>1.048485775847303</v>
+        <v>1.028705662785557</v>
       </c>
       <c r="M10">
-        <v>1.057570344927497</v>
+        <v>1.033791464074355</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.036307093053398</v>
+        <v>0.9964627867653361</v>
       </c>
       <c r="D11">
-        <v>1.040320054014509</v>
+        <v>1.016368154138203</v>
       </c>
       <c r="E11">
-        <v>1.044556215049024</v>
+        <v>1.012113842291096</v>
       </c>
       <c r="F11">
-        <v>1.053601726352139</v>
+        <v>1.016972396198248</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04003998368607</v>
+        <v>1.04306798837511</v>
       </c>
       <c r="J11">
-        <v>1.042866069399387</v>
+        <v>1.025983461924759</v>
       </c>
       <c r="K11">
-        <v>1.043871215947937</v>
+        <v>1.030987854517773</v>
       </c>
       <c r="L11">
-        <v>1.048091886438726</v>
+        <v>1.026810868857661</v>
       </c>
       <c r="M11">
-        <v>1.057104780858035</v>
+        <v>1.031581182111642</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.036093947425671</v>
+        <v>0.9953414402305665</v>
       </c>
       <c r="D12">
-        <v>1.040158870554561</v>
+        <v>1.015554116828779</v>
       </c>
       <c r="E12">
-        <v>1.044364711502949</v>
+        <v>1.011183858449984</v>
       </c>
       <c r="F12">
-        <v>1.053383995123005</v>
+        <v>1.015923660690195</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039987033144472</v>
+        <v>1.042725576557999</v>
       </c>
       <c r="J12">
-        <v>1.042739402285815</v>
+        <v>1.025344275680211</v>
       </c>
       <c r="K12">
-        <v>1.043755392612211</v>
+        <v>1.030389270625889</v>
       </c>
       <c r="L12">
-        <v>1.047945641521638</v>
+        <v>1.02609988484121</v>
       </c>
       <c r="M12">
-        <v>1.056931952348123</v>
+        <v>1.030752017561256</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.036139662215581</v>
+        <v>0.9955825109832011</v>
       </c>
       <c r="D13">
-        <v>1.040193440411531</v>
+        <v>1.015729082479829</v>
       </c>
       <c r="E13">
-        <v>1.044405781197239</v>
+        <v>1.011383727983243</v>
       </c>
       <c r="F13">
-        <v>1.053430689150589</v>
+        <v>1.016149055215795</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039998398093858</v>
+        <v>1.042799247216357</v>
       </c>
       <c r="J13">
-        <v>1.042766572699494</v>
+        <v>1.025481701027485</v>
       </c>
       <c r="K13">
-        <v>1.04378023839288</v>
+        <v>1.030517973613945</v>
       </c>
       <c r="L13">
-        <v>1.047977008672756</v>
+        <v>1.026252723020485</v>
       </c>
       <c r="M13">
-        <v>1.056969019976736</v>
+        <v>1.030930251691492</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.036289471815148</v>
+        <v>0.9963703376345991</v>
       </c>
       <c r="D14">
-        <v>1.040306728494247</v>
+        <v>1.016301023693212</v>
       </c>
       <c r="E14">
-        <v>1.044540381492097</v>
+        <v>1.012037142439253</v>
       </c>
       <c r="F14">
-        <v>1.053583724088398</v>
+        <v>1.016885903802819</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040035609879606</v>
+        <v>1.043039784409688</v>
       </c>
       <c r="J14">
-        <v>1.0428555990075</v>
+        <v>1.025930769383223</v>
       </c>
       <c r="K14">
-        <v>1.043861642534598</v>
+        <v>1.030938512348909</v>
       </c>
       <c r="L14">
-        <v>1.048079796491972</v>
+        <v>1.026752246853483</v>
       </c>
       <c r="M14">
-        <v>1.057090492694999</v>
+        <v>1.031512811848763</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.036381791033139</v>
+        <v>0.996854177936962</v>
       </c>
       <c r="D15">
-        <v>1.040376542292607</v>
+        <v>1.016652390951801</v>
       </c>
       <c r="E15">
-        <v>1.044623337937372</v>
+        <v>1.012438612568234</v>
       </c>
       <c r="F15">
-        <v>1.053678043391178</v>
+        <v>1.017338628264121</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040058517135257</v>
+        <v>1.043187339670024</v>
       </c>
       <c r="J15">
-        <v>1.042910451361392</v>
+        <v>1.026206529963058</v>
       </c>
       <c r="K15">
-        <v>1.043911794537805</v>
+        <v>1.031196732565897</v>
       </c>
       <c r="L15">
-        <v>1.048143135869338</v>
+        <v>1.02705906003798</v>
       </c>
       <c r="M15">
-        <v>1.057165349703814</v>
+        <v>1.031870653164745</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.036919380779358</v>
+        <v>0.9996468638710921</v>
       </c>
       <c r="D16">
-        <v>1.040783090115158</v>
+        <v>1.01868210642849</v>
       </c>
       <c r="E16">
-        <v>1.0451065570325</v>
+        <v>1.014758534705342</v>
       </c>
       <c r="F16">
-        <v>1.05422747040653</v>
+        <v>1.019954597495566</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040191539017816</v>
+        <v>1.044036411384815</v>
       </c>
       <c r="J16">
-        <v>1.043229719527221</v>
+        <v>1.027797669507089</v>
       </c>
       <c r="K16">
-        <v>1.044203642293809</v>
+        <v>1.032686336032308</v>
       </c>
       <c r="L16">
-        <v>1.048511925768732</v>
+        <v>1.028830425210648</v>
       </c>
       <c r="M16">
-        <v>1.057601257199028</v>
+        <v>1.033937027782094</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.037256817331171</v>
+        <v>1.001378425918323</v>
       </c>
       <c r="D17">
-        <v>1.041038282751759</v>
+        <v>1.019942001106046</v>
       </c>
       <c r="E17">
-        <v>1.045409997955483</v>
+        <v>1.01619927012837</v>
       </c>
       <c r="F17">
-        <v>1.054572504435851</v>
+        <v>1.021579082890802</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040274708081472</v>
+        <v>1.044560544915207</v>
       </c>
       <c r="J17">
-        <v>1.043429990317349</v>
+        <v>1.028783736114921</v>
       </c>
       <c r="K17">
-        <v>1.044386658078625</v>
+        <v>1.033609181813355</v>
       </c>
       <c r="L17">
-        <v>1.048743368951554</v>
+        <v>1.029929106508767</v>
       </c>
       <c r="M17">
-        <v>1.057874871793119</v>
+        <v>1.035219043642124</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.037453717412751</v>
+        <v>1.002381308046841</v>
       </c>
       <c r="D18">
-        <v>1.041187195146208</v>
+        <v>1.020672188749988</v>
       </c>
       <c r="E18">
-        <v>1.045587108390976</v>
+        <v>1.017034525401771</v>
       </c>
       <c r="F18">
-        <v>1.054773897971482</v>
+        <v>1.02252083258206</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040323120925809</v>
+        <v>1.044863263051076</v>
       </c>
       <c r="J18">
-        <v>1.043546805314227</v>
+        <v>1.029354653311068</v>
       </c>
       <c r="K18">
-        <v>1.044493388734164</v>
+        <v>1.034143385073741</v>
       </c>
       <c r="L18">
-        <v>1.048878405405032</v>
+        <v>1.03056555921585</v>
       </c>
       <c r="M18">
-        <v>1.058034531400699</v>
+        <v>1.035961829412426</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.037520868614138</v>
+        <v>1.002722075494956</v>
       </c>
       <c r="D19">
-        <v>1.041237981031883</v>
+        <v>1.020920378258146</v>
       </c>
       <c r="E19">
-        <v>1.045647518514209</v>
+        <v>1.017318471755284</v>
       </c>
       <c r="F19">
-        <v>1.054842591825985</v>
+        <v>1.022840976622013</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040339611766574</v>
+        <v>1.044965977972916</v>
       </c>
       <c r="J19">
-        <v>1.043586636245305</v>
+        <v>1.029548610717899</v>
       </c>
       <c r="K19">
-        <v>1.04452977780884</v>
+        <v>1.034324850694386</v>
       </c>
       <c r="L19">
-        <v>1.048924456013589</v>
+        <v>1.03078183756731</v>
       </c>
       <c r="M19">
-        <v>1.058088982151531</v>
+        <v>1.036214263802502</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.037220605395125</v>
+        <v>1.00119338489411</v>
       </c>
       <c r="D20">
-        <v>1.04101089648395</v>
+        <v>1.019807313463877</v>
       </c>
       <c r="E20">
-        <v>1.045377429348448</v>
+        <v>1.016045223178762</v>
       </c>
       <c r="F20">
-        <v>1.05453547094965</v>
+        <v>1.021405392478658</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040265794986932</v>
+        <v>1.044504621792577</v>
       </c>
       <c r="J20">
-        <v>1.043408503103173</v>
+        <v>1.028678380939389</v>
       </c>
       <c r="K20">
-        <v>1.044367024210032</v>
+        <v>1.033510592738424</v>
       </c>
       <c r="L20">
-        <v>1.048718533186343</v>
+        <v>1.029811684576238</v>
       </c>
       <c r="M20">
-        <v>1.05784550881811</v>
+        <v>1.035082014357648</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.036245353165363</v>
+        <v>0.9961386695463351</v>
       </c>
       <c r="D21">
-        <v>1.040273365209623</v>
+        <v>1.01613281531858</v>
       </c>
       <c r="E21">
-        <v>1.044500739898518</v>
+        <v>1.011844962224242</v>
       </c>
       <c r="F21">
-        <v>1.053538652979852</v>
+        <v>1.01666918613831</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040024656133433</v>
+        <v>1.042969087425103</v>
       </c>
       <c r="J21">
-        <v>1.042829382912474</v>
+        <v>1.025798723236004</v>
       </c>
       <c r="K21">
-        <v>1.043837671828035</v>
+        <v>1.03081485956874</v>
       </c>
       <c r="L21">
-        <v>1.04804952628671</v>
+        <v>1.026605350088236</v>
       </c>
       <c r="M21">
-        <v>1.057054719158973</v>
+        <v>1.031341490817119</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.035632896038937</v>
+        <v>0.9928926575346693</v>
       </c>
       <c r="D22">
-        <v>1.039810228095669</v>
+        <v>1.01377803742368</v>
       </c>
       <c r="E22">
-        <v>1.04395061013062</v>
+        <v>1.009155493431877</v>
       </c>
       <c r="F22">
-        <v>1.052913197289821</v>
+        <v>1.013636152754001</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039872162049297</v>
+        <v>1.041975488710945</v>
       </c>
       <c r="J22">
-        <v>1.04246527947795</v>
+        <v>1.023947999930368</v>
       </c>
       <c r="K22">
-        <v>1.04350468113699</v>
+        <v>1.029081402409574</v>
       </c>
       <c r="L22">
-        <v>1.047629261140087</v>
+        <v>1.024547734232114</v>
       </c>
       <c r="M22">
-        <v>1.05655811337287</v>
+        <v>1.028942229919998</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.035957502139895</v>
+        <v>0.9946200618195168</v>
       </c>
       <c r="D23">
-        <v>1.040055690472105</v>
+        <v>1.015030678121678</v>
       </c>
       <c r="E23">
-        <v>1.044242141390608</v>
+        <v>1.010585970793531</v>
       </c>
       <c r="F23">
-        <v>1.053244640916547</v>
+        <v>1.015249407087728</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039953085281196</v>
+        <v>1.042504938491838</v>
       </c>
       <c r="J23">
-        <v>1.042658296007872</v>
+        <v>1.02493301040363</v>
       </c>
       <c r="K23">
-        <v>1.043681221108257</v>
+        <v>1.03000408530302</v>
       </c>
       <c r="L23">
-        <v>1.047852016481387</v>
+        <v>1.025642571327882</v>
       </c>
       <c r="M23">
-        <v>1.056821316563448</v>
+        <v>1.03021874476386</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.037236967766223</v>
+        <v>1.001277018895889</v>
       </c>
       <c r="D24">
-        <v>1.041023270965578</v>
+        <v>1.019868187474966</v>
       </c>
       <c r="E24">
-        <v>1.045392145334213</v>
+        <v>1.016114846101987</v>
       </c>
       <c r="F24">
-        <v>1.054552204352468</v>
+        <v>1.021483893545791</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040269822734394</v>
+        <v>1.044529900304065</v>
       </c>
       <c r="J24">
-        <v>1.043418212249163</v>
+        <v>1.028725999486901</v>
       </c>
       <c r="K24">
-        <v>1.044375895970075</v>
+        <v>1.03355515347837</v>
       </c>
       <c r="L24">
-        <v>1.048729755277534</v>
+        <v>1.029864756036254</v>
       </c>
       <c r="M24">
-        <v>1.057858776482439</v>
+        <v>1.035143947395543</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.03872481187598</v>
+        <v>1.008724883767794</v>
       </c>
       <c r="D25">
-        <v>1.042148553380382</v>
+        <v>1.025298956551832</v>
       </c>
       <c r="E25">
-        <v>1.046731302121333</v>
+        <v>1.022331852629434</v>
       </c>
       <c r="F25">
-        <v>1.05607508427776</v>
+        <v>1.028493088336454</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040633521760836</v>
+        <v>1.046762561224396</v>
       </c>
       <c r="J25">
-        <v>1.044300065275101</v>
+        <v>1.032962146616941</v>
       </c>
       <c r="K25">
-        <v>1.045181263722695</v>
+        <v>1.0375168345521</v>
       </c>
       <c r="L25">
-        <v>1.04974986911252</v>
+        <v>1.034593111573468</v>
       </c>
       <c r="M25">
-        <v>1.059065228961354</v>
+        <v>1.040664620656029</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
